--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/28.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/4_fold/28.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-21.88358141742775</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3.47321748354366</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-8.268405176798243</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-11.34329963446295</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-6.652438589220228</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-9.971148873000169</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-22.02618549290401</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.421046015878922</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-8.371732603680856</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-11.89196954523229</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-6.598526781911231</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-9.90903863010144</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-22.19052498168164</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3.360922682824325</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-8.490808979681232</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-12.63991042623516</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.521823273881608</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-9.882326205386001</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-22.37300573015125</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3.294162399596622</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-8.623030068959412</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-13.40137333062493</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-6.457778462317866</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-9.914659362632769</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-22.5583205166616</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.226365288189157</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-8.75730463291886</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-14.10762055143917</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-6.312966586430067</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-10.0311230406637</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-22.77083689271774</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3.148616519757315</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-8.911288803672488</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-14.85296661683565</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-6.225101656015124</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-10.1026372645518</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-22.9881361242345</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3.069117951481565</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-9.068738514567567</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-15.52252866971375</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-6.117346795891561</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-10.19509224443227</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-23.2536716051989</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2.971972230276132</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-9.26113903259243</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-16.28353872670276</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-6.002732225305416</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-10.07357220397824</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-23.57391085372638</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>2.854813225221517</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-9.493176563263674</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-16.89440269949344</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-5.896924028578432</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-10.13034061817819</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-23.95555021034734</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2.715191091092136</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-9.769703111225805</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-17.56766904410983</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-5.787473500381339</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-9.995531630408403</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-24.43327558146483</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>2.540416045788254</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-10.11585123630046</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-18.23911041370112</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.660401940791895</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-9.73028752320757</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-24.97643496843493</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2.341702072856759</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-10.5094112496123</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-18.93173598470029</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-5.570347635331353</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-9.483749660117132</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-25.60721774914856</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>2.110931224705548</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-10.96646103192271</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-19.71340494011229</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.454137629127415</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-9.073895556348452</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-26.30344124580111</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.856218997711114</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-11.47092755718903</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-20.40464026959111</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-5.228376033903244</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-8.65867337410852</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-27.02995211342196</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.590426185608256</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-11.99733957103092</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-21.17149205805</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-5.040525501235594</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-8.281388675538889</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-27.7883030412823</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.312984739567832</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-12.54682211413607</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-21.96754344691036</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-4.78029719511574</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-7.898627618186543</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-28.518426386423</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.045870308475568</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-13.07585164087548</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-22.71468278801387</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-4.538099133885221</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-7.622145327144612</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-29.2201602112678</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.7891421369287531</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-13.58431081524023</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-23.58710236253958</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-4.276151137037156</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-7.329788486198089</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-29.8670796254444</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.552467727830075</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-14.05305280766952</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-24.28048871717204</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-3.971456068735025</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-7.216271345127539</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-30.42320803398682</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.3490090595780298</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-14.45600985696211</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-24.97832656175405</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-3.708445276509168</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-7.115793778534223</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-30.90419969881807</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.1730390460637227</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-14.80452465861147</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-25.57680515813375</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-3.462188215004931</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-7.183537878850519</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-31.26990263585021</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.03924722496356874</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-15.06950406653335</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-26.11318931892028</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-3.230174102624429</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-7.293786923247861</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-31.53929986529635</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>-0.05931131060478921</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-15.26470271310085</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-26.49951796498865</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-3.038363145403995</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-7.482699973311331</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-31.71207314939652</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>-0.1225201338776102</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-15.38989001101297</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-26.81414275361956</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-2.87861829034593</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-7.629836510479952</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-31.77238764005945</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>-0.1445860915918414</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-15.43359241645351</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-27.04914338377361</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-2.715907879985842</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-7.809909949662277</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-31.75824714384763</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>-0.1394128141913576</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-15.42334655858773</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-27.06165102898279</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-2.702062547215451</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-8.040957165770577</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-31.64830406309501</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>-0.09919031800188514</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-15.34368449002639</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-27.11736484469916</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-2.644988033162566</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-8.189439003778569</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-31.47574845539319</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>-0.03606113128320879</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-15.21865491511103</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-27.0295984899565</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-2.614779130717273</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-8.322230040289297</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-31.25498724465837</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.04470399642450424</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-15.05869673870872</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-26.8938710669986</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-2.587467857446974</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-8.394584256896612</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-30.97613524455793</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.1467215443655512</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-14.85664739646361</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-26.65478122481563</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-2.641250439441134</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-8.384448563499488</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-30.6834554433608</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.2537979707108874</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-14.64457876758877</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-26.40583742319197</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-2.7019879941492</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-8.30950546308177</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-30.35447750519367</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.3741540110707341</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-14.40620939603728</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-26.10450370577357</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-2.744870917857325</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-8.273674523652634</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-30.01313434157803</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.4990338489272462</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-14.15888048441548</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-25.81819999358663</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-2.831137099184865</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-8.155078051608065</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-29.66586104019238</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.6260832179832166</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-13.90725473993819</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-25.3804731675312</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-2.865298142508914</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-7.952065592503661</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-29.28873294807428</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.7640549133761697</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-13.63399694394904</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-25.04103686981226</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-2.973910362894374</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-7.797700524239583</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-28.91668069134442</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.9001696226981117</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-13.36441697419448</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-24.69844875418399</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-3.017397166439139</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-7.640221576715594</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-28.52183608160381</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.044622877073079</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-13.07832222264749</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-24.37798223408318</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-3.102440677480148</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-7.377687758522863</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-28.12155816298964</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.191063898608715</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-12.78829062831752</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-23.91308909245574</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-3.18230109368184</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-7.163059775098024</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-27.72540436591444</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.335996117027768</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-12.50124727163328</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-23.46450298572992</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-3.246512821277246</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-6.947828046906248</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-27.30914449975944</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.488284107919373</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-12.19963554882205</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-23.13849361344372</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-3.348479049990046</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-6.7154092801861</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-26.91261957016874</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.633352104561928</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-11.91232327859006</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-22.60568241864924</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-3.450166118888102</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-6.594027051037562</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-26.51435557351769</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1.779056336042809</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-11.6237509228807</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-22.2647064397677</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-3.511442112407987</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-6.428591141231919</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-26.12962521807297</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.919809307033948</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-11.34498471273578</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-21.75276698167457</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-3.591566777811172</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-6.244074928058105</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-25.77216188171899</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>2.050586683708755</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-11.08597551803376</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-21.39582360344198</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-3.670401675168198</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-6.091435782334297</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-25.41511691326093</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>2.181211001173432</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-10.82726946248139</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-20.97091688730227</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-3.75513869027017</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-5.930810143334799</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-25.09467826004059</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>2.298442958108637</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-10.5950874480445</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-20.47715472387593</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-3.856192058105085</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-5.861261371160809</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-24.78897294750278</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>2.410284746463841</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-10.37358085208374</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-20.11623081699059</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-3.953814328157604</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-5.649901484409177</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-24.50497234906204</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>2.514185900682849</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-10.1678009613478</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-19.6485300214784</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-4.01803185432483</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-5.560645695549162</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-24.25702637354612</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>2.604896530102306</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-9.988145368964496</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-19.1519556756933</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-4.086662093646769</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-5.535127635481361</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-24.01682579750831</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>2.692773517796776</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-9.814101903693119</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-18.78182538115037</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-4.167520692568835</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-5.425262494006473</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-23.81948049313419</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>2.764971974478729</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-9.671110320596748</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-18.24923608158227</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-4.228821537110804</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-5.300943571562232</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-23.64811163147105</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>2.827666992101069</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-9.546940632848921</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-17.91113568369559</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-4.28395518633893</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-5.319534972918046</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-23.5042839724796</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>2.880286105792647</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-9.442726627263848</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-17.42691954347742</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-4.360980929288242</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-5.252643990207206</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-23.40192819881425</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>2.91773279809963</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-9.368562135932876</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-17.03231284692304</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-4.368724507769612</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-5.375630736698312</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-23.30709583779563</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>2.95242706220064</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-9.299848925482674</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-16.56607474851532</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-4.452814567929998</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-5.387853287007244</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-23.24528547010379</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>2.975040284078138</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-9.255062644116339</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-16.17844190193274</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-4.455109145635753</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-5.476134553064104</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-23.19644834372782</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>2.992907266848818</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-9.219676456253772</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-15.78408427144878</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-4.510173212002044</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-5.602533769977033</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-23.15276067739277</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>3.008890328089775</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-9.188021441249248</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-15.46278904060457</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-4.582120234404792</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-5.765807354775003</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-23.12788886863656</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>3.017989638624583</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-9.169999936659623</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-15.21029038688488</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-4.594608701369398</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-5.912176086098713</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-23.08770172486639</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>3.032692039413212</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-9.140881314729178</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-14.87771925576157</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-4.612897396888405</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-6.091166722166422</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-23.05826525605571</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>3.043461323359631</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-9.119552369055222</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-14.59324957554774</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-4.66534962083367</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-6.321042542178</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-23.0269874701889</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>3.054904250138024</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-9.096889250056625</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-14.36794893671812</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-4.691335506259491</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-6.459910401016819</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-22.98645042593201</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>3.069734661447162</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-9.067517098787441</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-14.15185921402011</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-4.739867067287305</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-6.588386631176877</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-22.95630309310832</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>3.080764013829528</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-9.045673078427981</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-13.89205160325204</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-4.807404690004952</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-6.777247181695396</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-22.90649801199037</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>3.09898512125866</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-9.009585534222731</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-13.92087081183686</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-4.844179232484833</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-6.934903315183595</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-22.86220604330638</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>3.115189265525135</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-8.977492656509401</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-13.7229402699096</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-4.895376479814857</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-6.983173365544586</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-22.81589199960801</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>3.132133182626826</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-8.94393463267383</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-13.63197228404352</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-4.939461364624443</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-7.133561593278617</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-22.75868257361301</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>3.153063157513223</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-8.902482081182916</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-13.63608866691649</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-4.999388776012571</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-7.139326699558561</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-22.71473119806476</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>3.169142696338311</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-8.870635988929344</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-13.6874008058974</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-5.056305071891522</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-7.224316900391297</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-22.65865716869562</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>3.189657288227034</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-8.830006118076749</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-13.72630945457131</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-5.116362536961889</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-7.258270981088431</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-22.61734000807907</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>3.204773103829822</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-8.80006871356467</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-13.83583512692082</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-5.184198371944543</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-7.129512565874261</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-22.59261765437748</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>3.213817736477456</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-8.78215550045393</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-13.91379280696287</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-5.278949520578959</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-7.100201413683742</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-22.57654422899365</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>3.219698172852602</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-8.770509089363959</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-14.12159089375284</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-5.380944742150857</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-7.005236299310293</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-22.60164092438754</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>3.210516587909383</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-8.78869354131351</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-14.3404248716995</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.456363452338738</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-6.956693907559868</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-22.64790293885572</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>3.193591705616422</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-8.822213866040826</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-14.62337298464676</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.519792372738499</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-6.772856907248859</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-22.7418469649797</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>3.159222437383001</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-8.890283410743283</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-14.97682943789344</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.647074337648254</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-6.634179359260488</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-22.8921173866933</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>3.104246249492053</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-8.999165684692155</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-15.45842359166117</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-5.749193814330571</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-6.446628016144187</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-23.08561182270003</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>3.03345662670099</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-9.139367022710772</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-15.84539980951264</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-5.818185221840131</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-6.336470845950509</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-23.36054003564651</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>2.932874589869586</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-9.338573284707989</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-16.40854272321049</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-5.929976716317536</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-6.095041844828126</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-23.69797266514284</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>2.809425414521673</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-9.583068718906818</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-17.02382195815865</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-6.023841511830955</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-5.904458652990899</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-24.12089880475011</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>2.654698578395821</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-9.889510660492789</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-17.77435765476791</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-6.115183928602852</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-5.80896198072482</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-24.64542225394882</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>2.462802532803322</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-10.26956752888376</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-18.51969919169038</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.225322830111671</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-5.719483068798763</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-25.24918718790408</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>2.241916119678375</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-10.70704083993184</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-19.33249234895709</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.334376570322823</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-5.559100240194664</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-25.97654394013242</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>1.975813842076018</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-11.23406576108119</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-20.29294092971791</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.434855051180195</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-5.535967628200579</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-26.80702155655579</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>1.671984965048345</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-11.83580953945532</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-21.36408352912222</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-6.528257203499152</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-5.509104267293405</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-27.7554614333552</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>1.324999788088044</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-12.52302588790297</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-22.51000029134118</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-6.602030361841371</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-5.49465704876717</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-28.84361079443923</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.9269021249139402</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-13.31147231321914</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-23.82400042330284</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-6.687589945774324</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-5.501252304101653</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-30.03198084283199</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.492138887282703</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-14.17253619848822</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-25.24749905676997</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-6.79240741508756</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-5.651433814877438</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-31.3689407652956</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.003014287365675885</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-15.14126467396819</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-26.73291098686997</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-6.804827127557733</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-5.789304182362186</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-32.8280010179331</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>-0.530780518548244</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-16.19846406373479</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-28.33992150102393</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-6.874763702273887</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-5.990561187932287</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-34.4110159312192</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>-1.109923934228925</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-17.34547797031764</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-30.04584747292744</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-6.896807387229784</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-6.254955458749223</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-36.14451588439778</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-1.744122055510105</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-18.60152965793505</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-31.8976854058321</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-6.889037300991524</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-6.500594267132374</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-37.96916269584558</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-2.411666105742155</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-19.92362413080906</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-33.73999995789862</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-6.876163643184618</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-6.841988964284799</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-39.92840853208863</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-3.128452988946252</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-21.34324576653977</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-35.85677626262203</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-6.846791391816152</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-7.239039741528527</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-41.99917322786484</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-3.886038864428178</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-22.8436712416135</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-37.91964108428412</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-6.807419089161092</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-7.644303416335543</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-44.14076783108674</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-4.66953774564755</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-24.39541833606071</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-40.09701063546716</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-6.725285632806118</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-8.168206219067402</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-46.41151262624064</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-5.500286013252075</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-26.04074450227821</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-42.33665349696668</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-6.637139885841626</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-8.605560240725788</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-48.6666509243272</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-6.325324669441989</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-27.67476258224898</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-44.55549254887497</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-6.504659087111901</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-9.079316134364655</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-51.04147736150641</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-7.194151035468887</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-29.39550376181919</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-46.89929710526192</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-6.380997916119783</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-9.646363719381652</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-53.32080698941447</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-8.028040050088844</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-31.047050287979</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-49.16255369447444</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-6.20710123235229</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-10.06465056255811</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-55.74950421567308</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-8.916574956149701</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-32.80682492434994</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-51.52489669133029</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-5.9954782119591</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-10.57541535416595</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-42.13346851962492</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-3.93517057716632</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-22.94097832693821</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-41.67087652343773</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-3.765932052317391</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-22.60579547537607</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-41.15450279740208</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-3.57701756960841</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-22.23164369715473</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-40.6488794627365</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-3.392036099990912</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-21.86528138970792</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-40.153928981838</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-3.210959276459723</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-21.50665237118405</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-39.68484442029443</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-3.039345457199182</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-21.16676516548685</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-39.22259318280431</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-2.870231598361983</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-20.83182921934617</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-38.75905971151438</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-2.700648636387286</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-20.4959641979406</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-38.25506372457978</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-2.51626252927428</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-20.13078102687628</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-37.68125995844883</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-2.306337360371305</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-19.71501684558024</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-36.9969198033694</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-2.055972634446252</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-19.21916069910861</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-36.16426360573072</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-1.751346727045845</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-18.61583837404511</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-35.16666224141311</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-1.386375900321749</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-17.89300081358082</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-33.99255838944114</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-0.9568319273067563</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-17.04227386547597</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-32.67226601817305</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-0.47380512372089</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-16.08562229012468</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-31.25045821188526</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.0463609356535252</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-15.0554151122815</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-29.79073445927673</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.5803984819461382</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-13.99773496665631</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-28.36884175834595</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>1.100595599886774</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-12.96746627623022</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-27.04394657683049</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>1.585306334069896</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-12.00747961709747</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-25.87430464114612</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>2.013217922312262</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-11.15998566445523</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-24.89593700657282</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>2.371152120482261</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-10.4510843943613</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-24.13275619507221</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>2.65036057154916</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-9.898102235645419</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-23.60258289821824</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>2.844323604661283</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-9.513951625763909</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-23.30486399424795</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>2.953243578510513</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-9.298231786209364</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-23.2341752232343</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>2.979104949715242</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-9.247012430844229</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-23.3688432800948</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>2.929836861475079</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-9.344589612647807</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-23.68077602032535</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>2.815716778888653</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-9.570608450474301</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-24.13297260026221</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>2.65028140006451</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-9.898259037555688</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-24.68503702316966</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>2.44830953430697</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-10.29827142220846</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-25.29912693713216</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>2.223645744141515</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-10.74322596135749</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-25.93554486688591</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1.990813285934975</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-11.20435883490123</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-26.56731303437315</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1.759681935645064</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-11.66212260437828</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-27.16444779648801</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1.541221160038736</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-12.09479185499701</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-27.7117274898279</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1.340999779764057</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-12.49133734157627</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-28.20341479586169</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1.161116783417471</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-12.84760194336722</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-28.6344902873287</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1.003408520248812</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-13.15994870608552</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-29.01360225598414</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.8647110268709647</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-13.43464397051427</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-29.3401718471193</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.7452360763318955</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-13.67126831268269</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-29.62077912170274</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.6425763640934663</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-13.87458948390739</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-29.86406053040801</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.5535722588088831</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-14.05086524521324</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-30.07280216944016</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.4772044717405289</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-14.20211433379937</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-30.25820002945258</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.4093769680282633</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-14.33644909078755</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-30.42565204657848</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.3481149215705997</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-14.45778072873784</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-30.58506573708135</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.2897936837545582</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-14.57328799172813</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-30.74478486557588</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.2313607019490694</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-14.68901656762021</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-30.90873062182524</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.1713814152956652</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-14.80780765465608</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-31.08049475111974</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.1085417896571805</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-14.93226374366658</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-31.25783428012499</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.04366241315774804</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-15.06075963100704</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-31.43770445439182</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-0.02214279576964574</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-15.19108916203797</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-31.61547679224739</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-0.08718051467874258</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-15.31989865209059</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-31.78618815244821</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-0.1496349864669872</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-15.4435919303526</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-31.94556627785493</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-0.2079432128507981</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-15.55907342374367</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-32.08774027133602</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-0.2599573357213638</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-15.6620892237267</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-32.20830219331175</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-0.3040647175963106</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-15.74944544504204</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-32.30305454838735</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-0.3387297116539886</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-15.81810068514183</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-32.36915522490949</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-0.3629125359966652</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-15.86599561940245</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-32.40661931894047</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-0.3766187134940344</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-15.89314118606162</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-32.41685461562558</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-0.3803632800378935</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-15.90055743181982</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-32.40604699416379</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-0.3764093294110048</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-15.89272649351993</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-32.38143520188702</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-0.367405145479718</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-15.87489339051473</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-32.35350759434898</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-0.3571878759608897</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-15.85465772883216</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-32.33339045696886</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-0.349828054168777</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-15.84008134288534</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-32.32922536395875</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-0.3483042617065225</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-15.83706341831324</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-32.35076544941752</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-0.3561846667247876</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-15.85267083765138</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-32.40207653706775</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-0.3749567441794187</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-15.88984959737294</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-32.48661767800422</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-0.405885982253275</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-15.9511060413386</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-32.60392199641258</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-0.4488015751936381</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-16.03610188274688</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-32.74817865567223</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-0.501577637931351</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-16.14062673143863</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-32.91359628536702</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-0.5620954070762859</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-16.26048430199052</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-33.08878452324026</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-0.6261877372353064</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-16.38742141636882</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-33.2682623188801</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-0.6918493950840808</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-16.51746663943901</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-33.44802325443956</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-0.7576146392091339</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-16.64771701877311</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-33.62272121899963</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-0.8215276036787839</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-16.77429889309428</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-33.79245631573638</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-0.8836249110761943</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-16.8972847947167</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-33.95211506932654</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-0.9420358048217118</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-17.01296962442904</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-34.10095066573697</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-0.9964870642233525</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-17.12081225904006</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-34.24052725996968</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-1.047550932829118</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-17.22194604702571</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-34.3693524522977</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-1.094681418640965</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-17.31528963202815</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-34.49721534195994</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-1.141459847597183</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-17.40793595604415</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-34.62900473446861</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-1.18967478119469</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-17.50342732803239</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-34.77575161535912</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-1.243361887441209</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-17.60975653044001</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-34.95230344780799</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-1.307953086444425</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-17.73768167211234</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-35.16453168816127</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-1.385596440900863</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-17.89145706677966</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-35.43290692486353</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-1.483781082096197</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-18.08591520238935</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-35.76493820545491</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-1.605254182785657</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-18.32649695121713</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-36.17027877695394</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-1.753547367595018</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-18.62019682006202</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-36.66110607446639</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-1.933115731231337</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-18.97583828070283</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-37.22900447272728</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-2.140880430962221</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-19.38732357680732</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-37.88519988597798</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-2.380948449143503</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-19.86278673139758</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-38.62179155841947</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-2.650429307194405</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-20.39650304996951</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-39.43236011012362</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-2.94697448547248</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-20.9838212067602</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-40.31831763994867</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-3.271100598034353</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-21.62576437408111</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-41.25220163149633</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-3.612760528193625</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-22.30243388391956</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-42.23070563030927</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-3.970744614997556</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-23.01143396020787</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-43.22720202567154</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-4.335311190637445</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-23.73347088718003</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-44.20850303283188</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-4.694318558368428</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-24.44449760733908</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-45.16019910170552</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-5.04249500787086</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-25.13407331296037</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-46.0271093384174</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-5.359652699415062</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-25.76221527733607</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-46.80843023314457</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-5.645497670247118</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-26.32834129689167</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-47.44869705625228</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-5.879738239789119</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-26.79226298446672</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-47.95688114586647</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-6.065656557414309</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-27.16048075234714</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-26.33177450682646</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>1.845853320527737</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-11.49145714547159</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-26.55105410480606</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>1.765630238422104</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-11.6503417814921</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-26.7478516235939</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>1.693632188200533</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-11.79293645254423</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-26.88202125330958</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>1.64454644871571</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-11.89015248622359</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-26.96980932298844</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>1.612429327074518</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-11.9537615753791</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-27.03445001385392</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>1.588780636095304</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-12.00059863972483</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-27.07461964314781</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>1.574084642949162</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-12.02970457109393</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-27.12657168860261</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>1.555078072130552</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-12.06734775317134</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-27.19765375931108</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>1.529072812876043</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-12.11885208388044</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-27.29155180080756</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>1.494720368043345</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-12.18688830924598</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-27.42564786821015</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>1.445661541210395</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-12.28405104147164</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-27.57438531329387</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>1.391246190311022</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-12.39182255803081</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-27.74576529135016</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>1.328547105774436</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-12.51600030044536</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-27.91401815988974</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>1.266992069137535</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-12.6379122157518</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-28.04946083447861</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>1.217440588268988</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-12.73605066662445</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-28.13805512959262</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>1.185028510371603</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-12.80024392702067</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-28.133155227238</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>1.186821131630154</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-12.79669357756124</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-28.02798994029376</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>1.225295679772906</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-12.72049338159189</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-27.8020986151642</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>1.307937651437341</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-12.55681804971382</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-27.44593186393122</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>1.438240674567283</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-12.29874832889317</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-26.98230614086831</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>1.607857386702168</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-11.96281646410816</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-26.41574344832713</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>1.815133420681159</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-11.55229898771449</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-25.79399420935019</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>2.042599362369915</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-11.10179468890568</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-25.15228005158086</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>2.277369436929543</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-10.63682429801745</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-24.52089030849583</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>2.508362341271137</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-10.17933472561099</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-23.94684070883073</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>2.718377447970316</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-9.763392419345948</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-23.43784618920437</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>2.904592260089322</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-9.3945874336911</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-23.02385338759886</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>3.056050849125176</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-9.094618370430046</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-22.71090817417633</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>3.170541343372142</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-8.867865919280327</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-22.48799231218843</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>3.252094746715059</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-8.706346535254278</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-22.35959892586546</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>3.299067257006538</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-8.613315826326838</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-22.29168255093185</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>3.323914351641954</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-8.564105281385208</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-22.27118232778507</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>3.331414324734942</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-8.549251320857067</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-22.27303496431945</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>3.330736540690376</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-8.55059369599892</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-22.2626386607117</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>3.334540011353419</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-8.543060788560679</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-22.23356879008461</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>3.345175175954253</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-8.521997470968408</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-22.15836910042358</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>3.372686859364745</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-8.467509614228725</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-22.03541736353208</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>3.417668551116089</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-8.378421791448638</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-21.86452848177578</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>3.480187968874921</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-8.254599885407352</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-21.63875366676303</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>3.562787315503771</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-8.091008973911629</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-21.37917880217734</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>3.657752354960627</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-7.902927372797027</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-21.08729638467766</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>3.764537059785041</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-7.691436508655904</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-20.7818837842121</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>3.876271759907587</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-7.470142004706837</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-20.483087946976</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>3.985585728029889</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-7.253641845635414</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-20.19559727113965</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>4.090763721353137</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-7.045333130139698</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-19.94683683208843</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>4.181772320924249</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-6.86508739738971</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-19.73771064028287</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>4.258280795995495</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-6.713559671265042</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-19.57737897582509</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>4.316937873080824</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-6.597387266788514</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-19.47286248963555</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>4.35517505852913</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-6.521657175984931</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-19.41031470811499</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>4.37805806204921</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-6.476336582585683</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-19.39813959604209</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>4.3825123068785</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-6.467514794019693</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-19.42040485571051</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>4.374366598062265</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-6.48364765686199</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-19.46756786590363</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>4.357112087957667</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-6.517820821065174</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-19.53434153920139</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>4.332683048845878</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-6.566203392336825</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-19.59709519602453</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>4.309724726183229</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-6.611673157947341</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-19.65696285735416</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>4.287822240249421</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-6.655051801776499</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-19.69997181458824</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>4.272087483622459</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-6.686215040758692</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-19.71990605115819</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>4.264794575792461</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-6.7006589012498</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-19.72280189865627</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>4.26373513472387</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-6.70275716155282</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-19.69993745392899</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>4.272100054413419</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-6.68619014386501</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-19.66892362922835</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>4.283446411431095</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-6.663718284674428</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-19.63384283746128</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>4.296280661695101</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-6.638299600571671</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-19.59930071776053</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>4.30891783966509</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-6.613271225079387</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-19.58032226550634</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>4.315861075367151</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-6.599519902537653</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-19.56971929346312</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>4.319740155339132</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-6.59183724820344</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-19.5786267249683</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>4.31648138609852</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-6.598291355314258</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-19.60224559002205</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>4.307840462967014</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-6.615405007527503</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-19.63167073089351</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>4.297075323328623</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-6.63672574525363</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-19.66865514538962</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>4.283544635804166</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-6.663523747848442</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-19.69359897732305</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>4.274418975707825</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-6.681597438671551</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-19.70691547110654</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>4.269547158247398</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-6.691246244521954</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-19.70072982099618</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>4.271810168218465</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-6.686764273671091</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-19.66706031853635</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>4.28412810059876</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-6.662368175298912</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-19.61229439224411</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>4.304164125117293</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-6.622686123956965</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-19.52577254664883</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>4.335818000749477</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-6.559994509817338</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-19.41471297795571</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>4.376448962225032</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-6.479523461388825</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-19.2781317522766</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>4.426416980146892</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-6.380560044230068</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-19.11247881186793</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>4.487020837331455</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-6.260531973287478</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-18.92883158401021</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>4.554207875134547</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-6.127465681561311</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-18.72224352336956</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>4.62978777907235</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-5.977777023229651</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-18.50401976318831</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>4.70962458464716</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-5.81965742146602</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-18.27876272183225</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>4.792034504630963</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-5.656441676104045</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-18.04590986473176</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>4.877223341375554</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-5.487722188346736</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-17.81876628751416</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>4.960323447417292</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-5.323139505219181</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-17.59336940402247</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>5.042784528417585</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-5.15982243366442</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-17.3805876885406</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>5.120630370844146</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-5.005646004449599</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-17.18742367481771</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>5.191299109183343</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-4.865684082340108</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-17.01309676899128</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>5.255076322422471</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-4.739371068106145</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-16.87509277347276</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>5.305564858361948</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-4.639376746703864</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-16.77340420637737</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>5.342767454237084</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-4.565695696942453</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-16.71863805468882</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>5.362803561216488</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-4.526013482283848</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-16.72049353145686</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>5.362124738077084</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-4.527357915389577</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-16.77420719161576</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>5.342473683401574</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-4.566277520415802</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-16.89107302592978</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>5.299718509149617</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-4.650955646968841</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-17.06340616208291</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>5.236670713282993</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-4.775824024438727</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-17.28220478043377</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>5.15662359678749</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-4.934360154378643</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-17.54488169844973</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>5.06052367615917</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-5.124689427573673</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-17.81925799958943</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>4.960143555359161</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-5.323495787768158</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-18.1085862796946</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>4.854293277521103</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-5.533135986393591</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-18.36655653674024</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>4.759915281107094</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-5.720054928112133</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-18.60320586967622</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>4.673337509890402</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-5.891525249448306</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>